--- a/GxFramework/cocos 引擎变更(3.17).xlsx
+++ b/GxFramework/cocos 引擎变更(3.17).xlsx
@@ -3501,9 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B103"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U103" sqref="U103"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3575,9 +3573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EH74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BC72" sqref="BC72"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
